--- a/VRPTW-New/Zeus OS VRPTW Workspace 2018 2.4/Zeus/data/VRPTW/Results/rc208_I3_LongResults.xlsx
+++ b/VRPTW-New/Zeus OS VRPTW Workspace 2018 2.4/Zeus/data/VRPTW/Results/rc208_I3_LongResults.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="480" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1120" uniqueCount="25">
   <si>
     <t/>
   </si>
@@ -94,13 +94,33 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="4">
+  <fonts count="8">
     <font>
       <sz val="11.0"/>
       <color indexed="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
     </font>
     <font>
       <name val="Calibri"/>
@@ -138,11 +158,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true"/>
   </cellXfs>
 </styleSheet>
 </file>
@@ -165,26 +189,26 @@
     <col min="8" max="8" bestFit="true" customWidth="true" width="14.71875" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" s="3" customFormat="true">
-      <c r="A1" t="s" s="3">
+    <row r="1" s="7" customFormat="true">
+      <c r="A1" t="s" s="7">
         <v>1</v>
       </c>
-      <c r="B1" t="s" s="3">
+      <c r="B1" t="s" s="7">
         <v>2</v>
       </c>
-      <c r="C1" t="s" s="3">
+      <c r="C1" t="s" s="7">
         <v>3</v>
       </c>
-      <c r="D1" t="s" s="3">
+      <c r="D1" t="s" s="7">
         <v>4</v>
       </c>
-      <c r="E1" t="s" s="3">
+      <c r="E1" t="s" s="7">
         <v>5</v>
       </c>
-      <c r="F1" t="s" s="3">
+      <c r="F1" t="s" s="7">
         <v>6</v>
       </c>
-      <c r="G1" t="s" s="3">
+      <c r="G1" t="s" s="7">
         <v>7</v>
       </c>
     </row>
@@ -212,28 +236,28 @@
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="s" s="3">
+      <c r="A3" t="s" s="7">
         <v>9</v>
       </c>
-      <c r="B3" t="s" s="3">
+      <c r="B3" t="s" s="7">
         <v>10</v>
       </c>
-      <c r="C3" t="s" s="3">
+      <c r="C3" t="s" s="7">
         <v>11</v>
       </c>
-      <c r="D3" t="s" s="3">
+      <c r="D3" t="s" s="7">
         <v>12</v>
       </c>
-      <c r="E3" t="s" s="3">
+      <c r="E3" t="s" s="7">
         <v>13</v>
       </c>
-      <c r="F3" t="s" s="3">
+      <c r="F3" t="s" s="7">
         <v>14</v>
       </c>
-      <c r="G3" t="s" s="3">
+      <c r="G3" t="s" s="7">
         <v>15</v>
       </c>
-      <c r="H3" t="s" s="3">
+      <c r="H3" t="s" s="7">
         <v>16</v>
       </c>
     </row>
@@ -258,28 +282,28 @@
       </c>
     </row>
     <row r="5">
-      <c r="B5" t="s" s="3">
+      <c r="B5" t="s" s="7">
         <v>17</v>
       </c>
-      <c r="C5" t="s" s="3">
+      <c r="C5" t="s" s="7">
         <v>18</v>
       </c>
-      <c r="D5" t="s" s="3">
+      <c r="D5" t="s" s="7">
         <v>19</v>
       </c>
-      <c r="E5" t="s" s="3">
+      <c r="E5" t="s" s="7">
         <v>20</v>
       </c>
-      <c r="F5" t="s" s="3">
+      <c r="F5" t="s" s="7">
         <v>21</v>
       </c>
-      <c r="G5" t="s" s="3">
+      <c r="G5" t="s" s="7">
         <v>22</v>
       </c>
-      <c r="H5" t="s" s="3">
+      <c r="H5" t="s" s="7">
         <v>23</v>
       </c>
-      <c r="I5" t="s" s="3">
+      <c r="I5" t="s" s="7">
         <v>11</v>
       </c>
     </row>
@@ -860,10 +884,10 @@
       <c r="I25">
         <f>((C25-C24)^2+(D25- D24)^2)^.5</f>
       </c>
-      <c r="J25" s="3" t="s">
+      <c r="J25" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="K25" s="3" t="s">
+      <c r="K25" s="7" t="s">
         <v>24</v>
       </c>
       <c r="L25" t="n">
@@ -907,28 +931,28 @@
       </c>
     </row>
     <row r="27">
-      <c r="A27" t="s" s="3">
+      <c r="A27" t="s" s="7">
         <v>9</v>
       </c>
-      <c r="B27" t="s" s="3">
+      <c r="B27" t="s" s="7">
         <v>10</v>
       </c>
-      <c r="C27" t="s" s="3">
+      <c r="C27" t="s" s="7">
         <v>11</v>
       </c>
-      <c r="D27" t="s" s="3">
+      <c r="D27" t="s" s="7">
         <v>12</v>
       </c>
-      <c r="E27" t="s" s="3">
+      <c r="E27" t="s" s="7">
         <v>13</v>
       </c>
-      <c r="F27" t="s" s="3">
+      <c r="F27" t="s" s="7">
         <v>14</v>
       </c>
-      <c r="G27" t="s" s="3">
+      <c r="G27" t="s" s="7">
         <v>15</v>
       </c>
-      <c r="H27" t="s" s="3">
+      <c r="H27" t="s" s="7">
         <v>16</v>
       </c>
     </row>
@@ -953,28 +977,28 @@
       </c>
     </row>
     <row r="29">
-      <c r="B29" t="s" s="3">
+      <c r="B29" t="s" s="7">
         <v>17</v>
       </c>
-      <c r="C29" t="s" s="3">
+      <c r="C29" t="s" s="7">
         <v>18</v>
       </c>
-      <c r="D29" t="s" s="3">
+      <c r="D29" t="s" s="7">
         <v>19</v>
       </c>
-      <c r="E29" t="s" s="3">
+      <c r="E29" t="s" s="7">
         <v>20</v>
       </c>
-      <c r="F29" t="s" s="3">
+      <c r="F29" t="s" s="7">
         <v>21</v>
       </c>
-      <c r="G29" t="s" s="3">
+      <c r="G29" t="s" s="7">
         <v>22</v>
       </c>
-      <c r="H29" t="s" s="3">
+      <c r="H29" t="s" s="7">
         <v>23</v>
       </c>
-      <c r="I29" t="s" s="3">
+      <c r="I29" t="s" s="7">
         <v>11</v>
       </c>
     </row>
@@ -1555,10 +1579,10 @@
       <c r="I49">
         <f>((C49-C48)^2+(D49- D48)^2)^.5</f>
       </c>
-      <c r="J49" s="3" t="s">
+      <c r="J49" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="K49" s="3" t="s">
+      <c r="K49" s="7" t="s">
         <v>24</v>
       </c>
       <c r="L49" t="n">
@@ -1602,28 +1626,28 @@
       </c>
     </row>
     <row r="51">
-      <c r="A51" t="s" s="3">
+      <c r="A51" t="s" s="7">
         <v>9</v>
       </c>
-      <c r="B51" t="s" s="3">
+      <c r="B51" t="s" s="7">
         <v>10</v>
       </c>
-      <c r="C51" t="s" s="3">
+      <c r="C51" t="s" s="7">
         <v>11</v>
       </c>
-      <c r="D51" t="s" s="3">
+      <c r="D51" t="s" s="7">
         <v>12</v>
       </c>
-      <c r="E51" t="s" s="3">
+      <c r="E51" t="s" s="7">
         <v>13</v>
       </c>
-      <c r="F51" t="s" s="3">
+      <c r="F51" t="s" s="7">
         <v>14</v>
       </c>
-      <c r="G51" t="s" s="3">
+      <c r="G51" t="s" s="7">
         <v>15</v>
       </c>
-      <c r="H51" t="s" s="3">
+      <c r="H51" t="s" s="7">
         <v>16</v>
       </c>
     </row>
@@ -1648,28 +1672,28 @@
       </c>
     </row>
     <row r="53">
-      <c r="B53" t="s" s="3">
+      <c r="B53" t="s" s="7">
         <v>17</v>
       </c>
-      <c r="C53" t="s" s="3">
+      <c r="C53" t="s" s="7">
         <v>18</v>
       </c>
-      <c r="D53" t="s" s="3">
+      <c r="D53" t="s" s="7">
         <v>19</v>
       </c>
-      <c r="E53" t="s" s="3">
+      <c r="E53" t="s" s="7">
         <v>20</v>
       </c>
-      <c r="F53" t="s" s="3">
+      <c r="F53" t="s" s="7">
         <v>21</v>
       </c>
-      <c r="G53" t="s" s="3">
+      <c r="G53" t="s" s="7">
         <v>22</v>
       </c>
-      <c r="H53" t="s" s="3">
+      <c r="H53" t="s" s="7">
         <v>23</v>
       </c>
-      <c r="I53" t="s" s="3">
+      <c r="I53" t="s" s="7">
         <v>11</v>
       </c>
     </row>
@@ -1815,10 +1839,10 @@
       <c r="I58">
         <f>((C58-C57)^2+(D58- D57)^2)^.5</f>
       </c>
-      <c r="J58" s="3" t="s">
+      <c r="J58" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="K58" s="3" t="s">
+      <c r="K58" s="7" t="s">
         <v>24</v>
       </c>
       <c r="L58" t="n">
@@ -1862,28 +1886,28 @@
       </c>
     </row>
     <row r="60">
-      <c r="A60" t="s" s="3">
+      <c r="A60" t="s" s="7">
         <v>9</v>
       </c>
-      <c r="B60" t="s" s="3">
+      <c r="B60" t="s" s="7">
         <v>10</v>
       </c>
-      <c r="C60" t="s" s="3">
+      <c r="C60" t="s" s="7">
         <v>11</v>
       </c>
-      <c r="D60" t="s" s="3">
+      <c r="D60" t="s" s="7">
         <v>12</v>
       </c>
-      <c r="E60" t="s" s="3">
+      <c r="E60" t="s" s="7">
         <v>13</v>
       </c>
-      <c r="F60" t="s" s="3">
+      <c r="F60" t="s" s="7">
         <v>14</v>
       </c>
-      <c r="G60" t="s" s="3">
+      <c r="G60" t="s" s="7">
         <v>15</v>
       </c>
-      <c r="H60" t="s" s="3">
+      <c r="H60" t="s" s="7">
         <v>16</v>
       </c>
     </row>
@@ -1908,28 +1932,28 @@
       </c>
     </row>
     <row r="62">
-      <c r="B62" t="s" s="3">
+      <c r="B62" t="s" s="7">
         <v>17</v>
       </c>
-      <c r="C62" t="s" s="3">
+      <c r="C62" t="s" s="7">
         <v>18</v>
       </c>
-      <c r="D62" t="s" s="3">
+      <c r="D62" t="s" s="7">
         <v>19</v>
       </c>
-      <c r="E62" t="s" s="3">
+      <c r="E62" t="s" s="7">
         <v>20</v>
       </c>
-      <c r="F62" t="s" s="3">
+      <c r="F62" t="s" s="7">
         <v>21</v>
       </c>
-      <c r="G62" t="s" s="3">
+      <c r="G62" t="s" s="7">
         <v>22</v>
       </c>
-      <c r="H62" t="s" s="3">
+      <c r="H62" t="s" s="7">
         <v>23</v>
       </c>
-      <c r="I62" t="s" s="3">
+      <c r="I62" t="s" s="7">
         <v>11</v>
       </c>
     </row>
@@ -2452,10 +2476,10 @@
       <c r="I80">
         <f>((C80-C79)^2+(D80- D79)^2)^.5</f>
       </c>
-      <c r="J80" s="3" t="s">
+      <c r="J80" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="K80" s="3" t="s">
+      <c r="K80" s="7" t="s">
         <v>24</v>
       </c>
       <c r="L80" t="n">
@@ -2499,28 +2523,28 @@
       </c>
     </row>
     <row r="82">
-      <c r="A82" t="s" s="3">
+      <c r="A82" t="s" s="7">
         <v>9</v>
       </c>
-      <c r="B82" t="s" s="3">
+      <c r="B82" t="s" s="7">
         <v>10</v>
       </c>
-      <c r="C82" t="s" s="3">
+      <c r="C82" t="s" s="7">
         <v>11</v>
       </c>
-      <c r="D82" t="s" s="3">
+      <c r="D82" t="s" s="7">
         <v>12</v>
       </c>
-      <c r="E82" t="s" s="3">
+      <c r="E82" t="s" s="7">
         <v>13</v>
       </c>
-      <c r="F82" t="s" s="3">
+      <c r="F82" t="s" s="7">
         <v>14</v>
       </c>
-      <c r="G82" t="s" s="3">
+      <c r="G82" t="s" s="7">
         <v>15</v>
       </c>
-      <c r="H82" t="s" s="3">
+      <c r="H82" t="s" s="7">
         <v>16</v>
       </c>
     </row>
@@ -2545,28 +2569,28 @@
       </c>
     </row>
     <row r="84">
-      <c r="B84" t="s" s="3">
+      <c r="B84" t="s" s="7">
         <v>17</v>
       </c>
-      <c r="C84" t="s" s="3">
+      <c r="C84" t="s" s="7">
         <v>18</v>
       </c>
-      <c r="D84" t="s" s="3">
+      <c r="D84" t="s" s="7">
         <v>19</v>
       </c>
-      <c r="E84" t="s" s="3">
+      <c r="E84" t="s" s="7">
         <v>20</v>
       </c>
-      <c r="F84" t="s" s="3">
+      <c r="F84" t="s" s="7">
         <v>21</v>
       </c>
-      <c r="G84" t="s" s="3">
+      <c r="G84" t="s" s="7">
         <v>22</v>
       </c>
-      <c r="H84" t="s" s="3">
+      <c r="H84" t="s" s="7">
         <v>23</v>
       </c>
-      <c r="I84" t="s" s="3">
+      <c r="I84" t="s" s="7">
         <v>11</v>
       </c>
     </row>
@@ -2915,10 +2939,10 @@
       <c r="I96">
         <f>((C96-C95)^2+(D96- D95)^2)^.5</f>
       </c>
-      <c r="J96" s="3" t="s">
+      <c r="J96" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="K96" s="3" t="s">
+      <c r="K96" s="7" t="s">
         <v>24</v>
       </c>
       <c r="L96" t="n">
@@ -2962,28 +2986,28 @@
       </c>
     </row>
     <row r="98">
-      <c r="A98" t="s" s="3">
+      <c r="A98" t="s" s="7">
         <v>9</v>
       </c>
-      <c r="B98" t="s" s="3">
+      <c r="B98" t="s" s="7">
         <v>10</v>
       </c>
-      <c r="C98" t="s" s="3">
+      <c r="C98" t="s" s="7">
         <v>11</v>
       </c>
-      <c r="D98" t="s" s="3">
+      <c r="D98" t="s" s="7">
         <v>12</v>
       </c>
-      <c r="E98" t="s" s="3">
+      <c r="E98" t="s" s="7">
         <v>13</v>
       </c>
-      <c r="F98" t="s" s="3">
+      <c r="F98" t="s" s="7">
         <v>14</v>
       </c>
-      <c r="G98" t="s" s="3">
+      <c r="G98" t="s" s="7">
         <v>15</v>
       </c>
-      <c r="H98" t="s" s="3">
+      <c r="H98" t="s" s="7">
         <v>16</v>
       </c>
     </row>
@@ -3008,28 +3032,28 @@
       </c>
     </row>
     <row r="100">
-      <c r="B100" t="s" s="3">
+      <c r="B100" t="s" s="7">
         <v>17</v>
       </c>
-      <c r="C100" t="s" s="3">
+      <c r="C100" t="s" s="7">
         <v>18</v>
       </c>
-      <c r="D100" t="s" s="3">
+      <c r="D100" t="s" s="7">
         <v>19</v>
       </c>
-      <c r="E100" t="s" s="3">
+      <c r="E100" t="s" s="7">
         <v>20</v>
       </c>
-      <c r="F100" t="s" s="3">
+      <c r="F100" t="s" s="7">
         <v>21</v>
       </c>
-      <c r="G100" t="s" s="3">
+      <c r="G100" t="s" s="7">
         <v>22</v>
       </c>
-      <c r="H100" t="s" s="3">
+      <c r="H100" t="s" s="7">
         <v>23</v>
       </c>
-      <c r="I100" t="s" s="3">
+      <c r="I100" t="s" s="7">
         <v>11</v>
       </c>
     </row>
@@ -3378,10 +3402,10 @@
       <c r="I112">
         <f>((C112-C111)^2+(D112- D111)^2)^.5</f>
       </c>
-      <c r="J112" s="3" t="s">
+      <c r="J112" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="K112" s="3" t="s">
+      <c r="K112" s="7" t="s">
         <v>24</v>
       </c>
       <c r="L112" t="n">
@@ -3425,28 +3449,28 @@
       </c>
     </row>
     <row r="114">
-      <c r="A114" t="s" s="3">
+      <c r="A114" t="s" s="7">
         <v>9</v>
       </c>
-      <c r="B114" t="s" s="3">
+      <c r="B114" t="s" s="7">
         <v>10</v>
       </c>
-      <c r="C114" t="s" s="3">
+      <c r="C114" t="s" s="7">
         <v>11</v>
       </c>
-      <c r="D114" t="s" s="3">
+      <c r="D114" t="s" s="7">
         <v>12</v>
       </c>
-      <c r="E114" t="s" s="3">
+      <c r="E114" t="s" s="7">
         <v>13</v>
       </c>
-      <c r="F114" t="s" s="3">
+      <c r="F114" t="s" s="7">
         <v>14</v>
       </c>
-      <c r="G114" t="s" s="3">
+      <c r="G114" t="s" s="7">
         <v>15</v>
       </c>
-      <c r="H114" t="s" s="3">
+      <c r="H114" t="s" s="7">
         <v>16</v>
       </c>
     </row>
@@ -3471,28 +3495,28 @@
       </c>
     </row>
     <row r="116">
-      <c r="B116" t="s" s="3">
+      <c r="B116" t="s" s="7">
         <v>17</v>
       </c>
-      <c r="C116" t="s" s="3">
+      <c r="C116" t="s" s="7">
         <v>18</v>
       </c>
-      <c r="D116" t="s" s="3">
+      <c r="D116" t="s" s="7">
         <v>19</v>
       </c>
-      <c r="E116" t="s" s="3">
+      <c r="E116" t="s" s="7">
         <v>20</v>
       </c>
-      <c r="F116" t="s" s="3">
+      <c r="F116" t="s" s="7">
         <v>21</v>
       </c>
-      <c r="G116" t="s" s="3">
+      <c r="G116" t="s" s="7">
         <v>22</v>
       </c>
-      <c r="H116" t="s" s="3">
+      <c r="H116" t="s" s="7">
         <v>23</v>
       </c>
-      <c r="I116" t="s" s="3">
+      <c r="I116" t="s" s="7">
         <v>11</v>
       </c>
     </row>
@@ -4015,10 +4039,10 @@
       <c r="I134">
         <f>((C134-C133)^2+(D134- D133)^2)^.5</f>
       </c>
-      <c r="J134" s="3" t="s">
+      <c r="J134" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="K134" s="3" t="s">
+      <c r="K134" s="7" t="s">
         <v>24</v>
       </c>
       <c r="L134" t="n">
@@ -4062,28 +4086,28 @@
       </c>
     </row>
     <row r="136">
-      <c r="A136" t="s" s="3">
+      <c r="A136" t="s" s="7">
         <v>9</v>
       </c>
-      <c r="B136" t="s" s="3">
+      <c r="B136" t="s" s="7">
         <v>10</v>
       </c>
-      <c r="C136" t="s" s="3">
+      <c r="C136" t="s" s="7">
         <v>11</v>
       </c>
-      <c r="D136" t="s" s="3">
+      <c r="D136" t="s" s="7">
         <v>12</v>
       </c>
-      <c r="E136" t="s" s="3">
+      <c r="E136" t="s" s="7">
         <v>13</v>
       </c>
-      <c r="F136" t="s" s="3">
+      <c r="F136" t="s" s="7">
         <v>14</v>
       </c>
-      <c r="G136" t="s" s="3">
+      <c r="G136" t="s" s="7">
         <v>15</v>
       </c>
-      <c r="H136" t="s" s="3">
+      <c r="H136" t="s" s="7">
         <v>16</v>
       </c>
     </row>
@@ -4108,28 +4132,28 @@
       </c>
     </row>
     <row r="138">
-      <c r="B138" t="s" s="3">
+      <c r="B138" t="s" s="7">
         <v>17</v>
       </c>
-      <c r="C138" t="s" s="3">
+      <c r="C138" t="s" s="7">
         <v>18</v>
       </c>
-      <c r="D138" t="s" s="3">
+      <c r="D138" t="s" s="7">
         <v>19</v>
       </c>
-      <c r="E138" t="s" s="3">
+      <c r="E138" t="s" s="7">
         <v>20</v>
       </c>
-      <c r="F138" t="s" s="3">
+      <c r="F138" t="s" s="7">
         <v>21</v>
       </c>
-      <c r="G138" t="s" s="3">
+      <c r="G138" t="s" s="7">
         <v>22</v>
       </c>
-      <c r="H138" t="s" s="3">
+      <c r="H138" t="s" s="7">
         <v>23</v>
       </c>
-      <c r="I138" t="s" s="3">
+      <c r="I138" t="s" s="7">
         <v>11</v>
       </c>
     </row>
@@ -4217,10 +4241,10 @@
       <c r="I141">
         <f>((C141-C140)^2+(D141- D140)^2)^.5</f>
       </c>
-      <c r="J141" s="3" t="s">
+      <c r="J141" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="K141" s="3" t="s">
+      <c r="K141" s="7" t="s">
         <v>24</v>
       </c>
       <c r="L141" t="n">
